--- a/Conciliação Bancária.xlsx
+++ b/Conciliação Bancária.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,42 +424,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Data da Transação</t>
+          <t>Identificador de Transação</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Descrição/Referência</t>
+          <t>Data da Transação</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Valor</t>
+          <t>Descrição/Referência</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Saldo Disponível</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Identificador de Transação</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Categoria/Conta Contábil</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Status de Conciliação</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Notas/Comentários</t>
+          <t>Valor</t>
         </is>
       </c>
     </row>
